--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_8_12.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_8_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-672892.8898321381</v>
+        <v>-675123.9048307788</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7229882.073571227</v>
+        <v>7229882.073571229</v>
       </c>
     </row>
     <row r="8">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,16 +665,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>45.35912982874554</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>14.0192826803616</v>
+        <v>414.0192826803616</v>
       </c>
       <c r="H2" t="n">
-        <v>326.3306202891436</v>
+        <v>275.6644060975347</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,25 +704,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>69.24729817631211</v>
+        <v>69.24729817631192</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>179.7733425388453</v>
       </c>
       <c r="T2" t="n">
-        <v>217.4775260249106</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2429765210546</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>323.093094072819</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -744,19 +744,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>14.30806424434847</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.6568082862844</v>
       </c>
       <c r="H3" t="n">
-        <v>105.6032821882883</v>
+        <v>105.6032821882882</v>
       </c>
       <c r="I3" t="n">
-        <v>65.75336669408794</v>
+        <v>65.75336669408789</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,16 +783,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>57.52164616243638</v>
+        <v>57.52164616243628</v>
       </c>
       <c r="S3" t="n">
-        <v>158.9278549030378</v>
+        <v>158.9278549030377</v>
       </c>
       <c r="T3" t="n">
         <v>197.3968100198428</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8962038653876</v>
+        <v>112.4355630179215</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.4152657040901</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>23.43680335416269</v>
       </c>
       <c r="S4" t="n">
-        <v>213.9834791694747</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>1.93329191023057</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>243.6493553735484</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,19 +896,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>252.5017191829392</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>71.05302712961728</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -950,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -975,7 +975,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>172.7084989883154</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229251</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1054,16 +1054,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>147.2675521453878</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>144.0731271501067</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1139,7 +1139,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>145.0419193445131</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1178,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>136.0464559706087</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,16 +1190,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>66.36466614595577</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>82.92375604299512</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1382,10 +1382,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534538</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873208</v>
       </c>
       <c r="I11" t="n">
         <v>41.57692977292595</v>
@@ -1467,7 +1467,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>91.52916850473066</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1540,13 +1540,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590269</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>132.0202522085368</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1622,7 +1622,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873208</v>
       </c>
       <c r="I14" t="n">
         <v>41.57692977292595</v>
@@ -1667,7 +1667,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>102.7097832160015</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1777,10 +1777,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1822,16 +1822,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>178.4150102519694</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1904,13 +1904,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2005,19 +2005,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>71.68326928543267</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143193</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2053,7 +2053,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>161.4626099038021</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
@@ -2062,13 +2062,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2239,22 +2239,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>53.82704427691574</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
@@ -2296,16 +2296,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>225.6163413589767</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>7.0543717025309</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2485,10 +2485,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2527,19 +2527,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>107.9221621584908</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>131.7280115571595</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2722,16 +2722,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>119.862621118221</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,22 +2761,22 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2795,7 +2795,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2810,7 +2810,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2843,7 +2843,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2886,10 +2886,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2947,10 +2947,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2959,7 +2959,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>27.94011541199351</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2995,25 +2995,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>160.4950208782489</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3126,7 +3126,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3190,22 +3190,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>145.4181264572037</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3244,16 +3244,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>138.2117435109537</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>62.21262516958326</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T35" t="n">
         <v>156.9428335210276</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C37" t="n">
         <v>120.2716844800353</v>
@@ -3430,19 +3430,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E37" t="n">
-        <v>99.4588260279766</v>
+        <v>99.45882602797664</v>
       </c>
       <c r="F37" t="n">
-        <v>98.44591140433867</v>
+        <v>98.44591140433872</v>
       </c>
       <c r="G37" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H37" t="n">
-        <v>97.77987829572821</v>
+        <v>97.77987829572825</v>
       </c>
       <c r="I37" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S37" t="n">
-        <v>142.7938887128497</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T37" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U37" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V37" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W37" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X37" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y37" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="38">
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T38" t="n">
         <v>156.9428335210276</v>
@@ -3600,7 +3600,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247752</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3667,19 +3667,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.4588260279766</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433867</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G40" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H40" t="n">
-        <v>97.77987829572908</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S40" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T40" t="n">
         <v>172.5738126575766</v>
@@ -3837,7 +3837,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247752</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3904,7 +3904,7 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.4588260279766</v>
+        <v>99.45882602797749</v>
       </c>
       <c r="F43" t="n">
         <v>98.44591140433867</v>
@@ -3913,7 +3913,7 @@
         <v>119.0506716404357</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77987829572908</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I43" t="n">
         <v>49.37728379124552</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1182.166856731258</v>
+        <v>1103.423711183161</v>
       </c>
       <c r="C2" t="n">
-        <v>1182.166856731258</v>
+        <v>1103.423711183161</v>
       </c>
       <c r="D2" t="n">
-        <v>823.9011581245079</v>
+        <v>745.1580125764108</v>
       </c>
       <c r="E2" t="n">
-        <v>438.1129055262637</v>
+        <v>745.1580125764108</v>
       </c>
       <c r="F2" t="n">
-        <v>392.2956026689449</v>
+        <v>745.1580125764108</v>
       </c>
       <c r="G2" t="n">
-        <v>378.1347110726201</v>
+        <v>326.9567169396819</v>
       </c>
       <c r="H2" t="n">
-        <v>48.5078218916669</v>
+        <v>48.50782189166697</v>
       </c>
       <c r="I2" t="n">
-        <v>48.5078218916669</v>
+        <v>48.50782189166697</v>
       </c>
       <c r="J2" t="n">
         <v>144.520333965625</v>
       </c>
       <c r="K2" t="n">
-        <v>409.1630051359723</v>
+        <v>409.1630051359725</v>
       </c>
       <c r="L2" t="n">
-        <v>789.7522675707565</v>
+        <v>789.7522675707573</v>
       </c>
       <c r="M2" t="n">
-        <v>1229.83769920251</v>
+        <v>1229.837699202511</v>
       </c>
       <c r="N2" t="n">
-        <v>1662.412175667405</v>
+        <v>1662.412175667407</v>
       </c>
       <c r="O2" t="n">
-        <v>2025.692349594563</v>
+        <v>2025.692349594566</v>
       </c>
       <c r="P2" t="n">
-        <v>2298.06919034999</v>
+        <v>2298.069190349993</v>
       </c>
       <c r="Q2" t="n">
-        <v>2425.391094583345</v>
+        <v>2425.391094583349</v>
       </c>
       <c r="R2" t="n">
-        <v>2355.444328748686</v>
+        <v>2355.44432874869</v>
       </c>
       <c r="S2" t="n">
-        <v>2355.444328748686</v>
+        <v>2173.855093860968</v>
       </c>
       <c r="T2" t="n">
-        <v>2135.770060036655</v>
+        <v>2173.855093860968</v>
       </c>
       <c r="U2" t="n">
-        <v>1881.989275671953</v>
+        <v>2173.855093860968</v>
       </c>
       <c r="V2" t="n">
-        <v>1555.632614992338</v>
+        <v>1842.792206517397</v>
       </c>
       <c r="W2" t="n">
-        <v>1555.632614992338</v>
+        <v>1490.023551247283</v>
       </c>
       <c r="X2" t="n">
-        <v>1182.166856731258</v>
+        <v>1490.023551247283</v>
       </c>
       <c r="Y2" t="n">
-        <v>1182.166856731258</v>
+        <v>1490.023551247283</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>705.9699330765791</v>
+        <v>988.7919780233841</v>
       </c>
       <c r="C3" t="n">
-        <v>531.5169037954521</v>
+        <v>814.3389487422571</v>
       </c>
       <c r="D3" t="n">
-        <v>382.5824941342008</v>
+        <v>665.4045390810059</v>
       </c>
       <c r="E3" t="n">
-        <v>368.1299039883943</v>
+        <v>506.1670840755503</v>
       </c>
       <c r="F3" t="n">
-        <v>221.5953460152792</v>
+        <v>359.6325261024352</v>
       </c>
       <c r="G3" t="n">
         <v>221.5953460152792</v>
       </c>
       <c r="H3" t="n">
-        <v>114.9253640069072</v>
+        <v>114.9253640069073</v>
       </c>
       <c r="I3" t="n">
-        <v>48.5078218916669</v>
+        <v>48.50782189166697</v>
       </c>
       <c r="J3" t="n">
-        <v>48.5078218916669</v>
+        <v>111.9988366483577</v>
       </c>
       <c r="K3" t="n">
-        <v>283.6449219257043</v>
+        <v>347.1359366823954</v>
       </c>
       <c r="L3" t="n">
-        <v>661.2201669287407</v>
+        <v>532.3189194019296</v>
       </c>
       <c r="M3" t="n">
-        <v>1153.811890413818</v>
+        <v>1024.910642887008</v>
       </c>
       <c r="N3" t="n">
-        <v>1675.148064454584</v>
+        <v>1546.246816927774</v>
       </c>
       <c r="O3" t="n">
-        <v>2085.653134162006</v>
+        <v>1956.751886635196</v>
       </c>
       <c r="P3" t="n">
-        <v>2398.116575691042</v>
+        <v>2269.215328164233</v>
       </c>
       <c r="Q3" t="n">
-        <v>2425.391094583345</v>
+        <v>2425.391094583349</v>
       </c>
       <c r="R3" t="n">
-        <v>2367.288421691995</v>
+        <v>2367.288421691999</v>
       </c>
       <c r="S3" t="n">
-        <v>2206.75523492125</v>
+        <v>2206.755234921254</v>
       </c>
       <c r="T3" t="n">
-        <v>2007.36451772949</v>
+        <v>2007.364517729493</v>
       </c>
       <c r="U3" t="n">
-        <v>1779.186534027078</v>
+        <v>1893.793241953815</v>
       </c>
       <c r="V3" t="n">
-        <v>1544.034425795335</v>
+        <v>1658.641133722072</v>
       </c>
       <c r="W3" t="n">
-        <v>1289.797069067134</v>
+        <v>1404.403776993871</v>
       </c>
       <c r="X3" t="n">
-        <v>1081.945568861601</v>
+        <v>1196.552276788338</v>
       </c>
       <c r="Y3" t="n">
-        <v>874.1852700966472</v>
+        <v>988.7919780233841</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>196.42091547406</v>
+        <v>365.5272444680905</v>
       </c>
       <c r="C4" t="n">
-        <v>196.42091547406</v>
+        <v>365.5272444680905</v>
       </c>
       <c r="D4" t="n">
-        <v>196.42091547406</v>
+        <v>365.5272444680905</v>
       </c>
       <c r="E4" t="n">
-        <v>48.5078218916669</v>
+        <v>217.6141508856974</v>
       </c>
       <c r="F4" t="n">
-        <v>48.5078218916669</v>
+        <v>217.6141508856974</v>
       </c>
       <c r="G4" t="n">
-        <v>48.5078218916669</v>
+        <v>48.50782189166697</v>
       </c>
       <c r="H4" t="n">
-        <v>48.5078218916669</v>
+        <v>48.50782189166697</v>
       </c>
       <c r="I4" t="n">
-        <v>48.5078218916669</v>
+        <v>48.50782189166697</v>
       </c>
       <c r="J4" t="n">
-        <v>48.5078218916669</v>
+        <v>48.50782189166697</v>
       </c>
       <c r="K4" t="n">
-        <v>92.6796095095265</v>
+        <v>92.67960950952673</v>
       </c>
       <c r="L4" t="n">
-        <v>204.7307244491456</v>
+        <v>204.730724449146</v>
       </c>
       <c r="M4" t="n">
-        <v>333.2620375218775</v>
+        <v>333.2620375218781</v>
       </c>
       <c r="N4" t="n">
-        <v>464.1717796732032</v>
+        <v>464.171779673204</v>
       </c>
       <c r="O4" t="n">
-        <v>569.0718193912182</v>
+        <v>569.0718193912193</v>
       </c>
       <c r="P4" t="n">
-        <v>635.3112431829491</v>
+        <v>635.3112431829502</v>
       </c>
       <c r="Q4" t="n">
-        <v>635.3112431829491</v>
+        <v>635.3112431829502</v>
       </c>
       <c r="R4" t="n">
-        <v>635.3112431829491</v>
+        <v>611.6377044413717</v>
       </c>
       <c r="S4" t="n">
-        <v>419.1663147289341</v>
+        <v>611.6377044413717</v>
       </c>
       <c r="T4" t="n">
-        <v>417.2134946175901</v>
+        <v>611.6377044413717</v>
       </c>
       <c r="U4" t="n">
-        <v>417.2134946175901</v>
+        <v>611.6377044413717</v>
       </c>
       <c r="V4" t="n">
-        <v>417.2134946175901</v>
+        <v>611.6377044413717</v>
       </c>
       <c r="W4" t="n">
-        <v>417.2134946175901</v>
+        <v>365.5272444680905</v>
       </c>
       <c r="X4" t="n">
-        <v>417.2134946175901</v>
+        <v>365.5272444680905</v>
       </c>
       <c r="Y4" t="n">
-        <v>196.42091547406</v>
+        <v>365.5272444680905</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1172.541840390021</v>
+        <v>1761.414268258235</v>
       </c>
       <c r="C5" t="n">
-        <v>803.5793234496095</v>
+        <v>1761.414268258235</v>
       </c>
       <c r="D5" t="n">
-        <v>803.5793234496095</v>
+        <v>1403.148569651485</v>
       </c>
       <c r="E5" t="n">
-        <v>803.5793234496095</v>
+        <v>1017.36031705324</v>
       </c>
       <c r="F5" t="n">
-        <v>548.527081850681</v>
+        <v>606.3744122636328</v>
       </c>
       <c r="G5" t="n">
         <v>534.603677789272</v>
@@ -4562,22 +4562,22 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332392</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332392</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2267.209817970484</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>1936.146930626913</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W5" t="n">
-        <v>1936.146930626913</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="X5" t="n">
-        <v>1562.681172365833</v>
+        <v>1761.414268258235</v>
       </c>
       <c r="Y5" t="n">
-        <v>1172.541840390021</v>
+        <v>1761.414268258235</v>
       </c>
     </row>
     <row r="6">
@@ -4620,7 +4620,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
         <v>814.0449459359563</v>
@@ -4641,7 +4641,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4668,19 +4668,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>361.80799380017</v>
+        <v>507.3364050629041</v>
       </c>
       <c r="C7" t="n">
-        <v>361.80799380017</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="D7" t="n">
-        <v>211.6913543878343</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="E7" t="n">
-        <v>211.6913543878343</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="F7" t="n">
         <v>211.6913543878343</v>
@@ -4717,13 +4717,13 @@
         <v>211.6913543878343</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4753,22 +4753,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>582.6005729437002</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>582.6005729437002</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>582.6005729437002</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>582.6005729437002</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>582.6005729437002</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>361.80799380017</v>
+        <v>507.3364050629041</v>
       </c>
     </row>
     <row r="8">
@@ -4778,13 +4778,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1679.782215419422</v>
+        <v>1533.27522618254</v>
       </c>
       <c r="C8" t="n">
-        <v>1310.819698479011</v>
+        <v>1164.312709242129</v>
       </c>
       <c r="D8" t="n">
-        <v>952.5539998722602</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="E8" t="n">
         <v>806.0470106353782</v>
@@ -4805,16 +4805,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2504.699738952141</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2504.699738952141</v>
       </c>
       <c r="U8" t="n">
-        <v>2443.387305656314</v>
+        <v>2250.937953590233</v>
       </c>
       <c r="V8" t="n">
-        <v>2443.387305656314</v>
+        <v>1919.875066246662</v>
       </c>
       <c r="W8" t="n">
-        <v>2443.387305656314</v>
+        <v>1919.875066246662</v>
       </c>
       <c r="X8" t="n">
-        <v>2069.921547395234</v>
+        <v>1919.875066246662</v>
       </c>
       <c r="Y8" t="n">
-        <v>1679.782215419422</v>
+        <v>1919.875066246662</v>
       </c>
     </row>
     <row r="9">
@@ -4872,31 +4872,31 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I10" t="n">
         <v>53.94298182036445</v>
@@ -4984,28 +4984,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406182</v>
+        <v>661.093967897388</v>
       </c>
       <c r="S10" t="n">
-        <v>365.6939024587809</v>
+        <v>661.093967897388</v>
       </c>
       <c r="T10" t="n">
-        <v>281.9325327183818</v>
+        <v>661.093967897388</v>
       </c>
       <c r="U10" t="n">
-        <v>281.9325327183818</v>
+        <v>371.9203575519559</v>
       </c>
       <c r="V10" t="n">
-        <v>281.9325327183818</v>
+        <v>371.9203575519559</v>
       </c>
       <c r="W10" t="n">
-        <v>281.9325327183818</v>
+        <v>371.9203575519559</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>371.9203575519559</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>371.9203575519559</v>
       </c>
     </row>
     <row r="11">
@@ -5030,7 +5030,7 @@
         <v>850.2139837551624</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H11" t="n">
         <v>137.5579332089257</v>
@@ -5039,25 +5039,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K11" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L11" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M11" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N11" t="n">
-        <v>3070.887536710053</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O11" t="n">
-        <v>3865.782086996753</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P11" t="n">
-        <v>4260.556453353931</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q11" t="n">
         <v>4719.034655862919</v>
@@ -5094,25 +5094,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G12" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
@@ -5124,7 +5124,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
@@ -5160,10 +5160,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="13">
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>973.7726509601067</v>
+        <v>876.4469737784534</v>
       </c>
       <c r="C13" t="n">
-        <v>804.8364680321998</v>
+        <v>707.5107908505465</v>
       </c>
       <c r="D13" t="n">
-        <v>654.7198286198641</v>
+        <v>557.3941514382108</v>
       </c>
       <c r="E13" t="n">
-        <v>506.806735037471</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="F13" t="n">
-        <v>506.806735037471</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G13" t="n">
-        <v>339.1038984121913</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H13" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I13" t="n">
         <v>95.56103444839442</v>
@@ -5221,28 +5221,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S13" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T13" t="n">
-        <v>1644.746393431758</v>
+        <v>1822.989675995071</v>
       </c>
       <c r="U13" t="n">
-        <v>1355.643526557401</v>
+        <v>1822.989675995071</v>
       </c>
       <c r="V13" t="n">
-        <v>1355.643526557401</v>
+        <v>1568.305187789184</v>
       </c>
       <c r="W13" t="n">
-        <v>1066.226356520441</v>
+        <v>1278.888017752223</v>
       </c>
       <c r="X13" t="n">
-        <v>1066.226356520441</v>
+        <v>1278.888017752223</v>
       </c>
       <c r="Y13" t="n">
-        <v>1066.226356520441</v>
+        <v>1058.095438608693</v>
       </c>
     </row>
     <row r="14">
@@ -5255,19 +5255,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F14" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H14" t="n">
         <v>137.5579332089257</v>
@@ -5276,28 +5276,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K14" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L14" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M14" t="n">
-        <v>2151.197749519704</v>
+        <v>2536.15366264131</v>
       </c>
       <c r="N14" t="n">
-        <v>3130.950021746351</v>
+        <v>3254.420735780954</v>
       </c>
       <c r="O14" t="n">
-        <v>4010.914672075805</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P14" t="n">
-        <v>4405.689038432984</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q14" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
@@ -5315,7 +5315,7 @@
         <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X14" t="n">
         <v>3150.95552873011</v>
@@ -5331,19 +5331,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C15" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
         <v>205.0702204089889</v>
@@ -5355,13 +5355,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193587</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5373,22 +5373,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q15" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T15" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V15" t="n">
         <v>1808.657265216076</v>
@@ -5397,10 +5397,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="16">
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>958.1479941221958</v>
+        <v>540.4807149410336</v>
       </c>
       <c r="C16" t="n">
-        <v>854.4007383484569</v>
+        <v>540.4807149410336</v>
       </c>
       <c r="D16" t="n">
-        <v>704.2840989361212</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E16" t="n">
-        <v>556.371005353728</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F16" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G16" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H16" t="n">
         <v>95.56103444839442</v>
@@ -5461,25 +5461,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S16" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T16" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U16" t="n">
-        <v>1475.554715057174</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V16" t="n">
-        <v>1475.554715057174</v>
+        <v>1412.556111024461</v>
       </c>
       <c r="W16" t="n">
-        <v>1186.137545020213</v>
+        <v>1123.1389409875</v>
       </c>
       <c r="X16" t="n">
-        <v>958.1479941221958</v>
+        <v>942.9217589148035</v>
       </c>
       <c r="Y16" t="n">
-        <v>958.1479941221958</v>
+        <v>722.1291797712734</v>
       </c>
     </row>
     <row r="17">
@@ -5516,25 +5516,25 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K17" t="n">
-        <v>1014.851249206415</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L17" t="n">
-        <v>1465.885462454824</v>
+        <v>1614.698881814246</v>
       </c>
       <c r="M17" t="n">
-        <v>1999.417367126749</v>
+        <v>2593.249184644075</v>
       </c>
       <c r="N17" t="n">
-        <v>2979.169639353395</v>
+        <v>3573.001456870722</v>
       </c>
       <c r="O17" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P17" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
@@ -5552,7 +5552,7 @@
         <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
         <v>3150.95552873011</v>
@@ -5568,19 +5568,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G18" t="n">
         <v>205.0702204089889</v>
@@ -5592,10 +5592,10 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L18" t="n">
         <v>794.2006632320242</v>
@@ -5610,22 +5610,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q18" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T18" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V18" t="n">
         <v>1808.657265216076</v>
@@ -5634,10 +5634,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="19">
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>781.1514798657291</v>
+        <v>557.6043516563539</v>
       </c>
       <c r="C19" t="n">
-        <v>612.2152969378222</v>
+        <v>388.668168728447</v>
       </c>
       <c r="D19" t="n">
-        <v>462.0986575254865</v>
+        <v>388.668168728447</v>
       </c>
       <c r="E19" t="n">
-        <v>314.1855639430934</v>
+        <v>388.668168728447</v>
       </c>
       <c r="F19" t="n">
-        <v>314.1855639430934</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G19" t="n">
-        <v>241.7782212305351</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H19" t="n">
         <v>95.56103444839442</v>
@@ -5701,22 +5701,22 @@
         <v>1956.343466104704</v>
       </c>
       <c r="T19" t="n">
-        <v>1734.57685067423</v>
+        <v>1793.249920747328</v>
       </c>
       <c r="U19" t="n">
-        <v>1445.473983799873</v>
+        <v>1504.147053872971</v>
       </c>
       <c r="V19" t="n">
-        <v>1190.789495593986</v>
+        <v>1249.462565667084</v>
       </c>
       <c r="W19" t="n">
-        <v>1190.789495593986</v>
+        <v>960.0453956301237</v>
       </c>
       <c r="X19" t="n">
-        <v>962.7999446959689</v>
+        <v>960.0453956301237</v>
       </c>
       <c r="Y19" t="n">
-        <v>962.7999446959689</v>
+        <v>739.2528164865936</v>
       </c>
     </row>
     <row r="20">
@@ -5729,16 +5729,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D20" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G20" t="n">
         <v>435.1415336001585</v>
@@ -5750,52 +5750,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K20" t="n">
-        <v>750.1800661608922</v>
+        <v>1002.806306216376</v>
       </c>
       <c r="L20" t="n">
-        <v>1614.698881814247</v>
+        <v>1453.840519464784</v>
       </c>
       <c r="M20" t="n">
-        <v>2593.249184644075</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N20" t="n">
-        <v>3573.001456870722</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O20" t="n">
-        <v>4075.973927750059</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R20" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="21">
@@ -5805,37 +5805,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C21" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193586</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320239</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5847,22 +5847,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q21" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S21" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T21" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V21" t="n">
         <v>1808.657265216076</v>
@@ -5871,10 +5871,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="22">
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>300.0484256555945</v>
+        <v>725.3071882816349</v>
       </c>
       <c r="C22" t="n">
-        <v>300.0484256555945</v>
+        <v>556.371005353728</v>
       </c>
       <c r="D22" t="n">
-        <v>149.9317862432588</v>
+        <v>556.371005353728</v>
       </c>
       <c r="E22" t="n">
-        <v>149.9317862432588</v>
+        <v>556.371005353728</v>
       </c>
       <c r="F22" t="n">
-        <v>95.56103444839442</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G22" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H22" t="n">
         <v>95.56103444839442</v>
@@ -5911,7 +5911,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L22" t="n">
         <v>661.2306482927024</v>
@@ -5923,37 +5923,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P22" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S22" t="n">
-        <v>1764.657581931529</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T22" t="n">
-        <v>1542.890966501056</v>
+        <v>1644.746393431758</v>
       </c>
       <c r="U22" t="n">
-        <v>1253.788099626699</v>
+        <v>1355.643526557401</v>
       </c>
       <c r="V22" t="n">
-        <v>999.1036114208122</v>
+        <v>1355.643526557401</v>
       </c>
       <c r="W22" t="n">
-        <v>709.6864413838516</v>
+        <v>1127.748232255405</v>
       </c>
       <c r="X22" t="n">
-        <v>481.6968904858343</v>
+        <v>1127.748232255405</v>
       </c>
       <c r="Y22" t="n">
-        <v>481.6968904858343</v>
+        <v>906.9556531118747</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551622</v>
       </c>
       <c r="G23" t="n">
         <v>435.1415336001584</v>
@@ -5987,22 +5987,22 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K23" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L23" t="n">
-        <v>1069.293752345675</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M23" t="n">
-        <v>2047.844055175504</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N23" t="n">
-        <v>2985.817436667298</v>
+        <v>3070.887536710053</v>
       </c>
       <c r="O23" t="n">
-        <v>3865.782086996753</v>
+        <v>3573.86000758939</v>
       </c>
       <c r="P23" t="n">
         <v>4260.556453353931</v>
@@ -6017,22 +6017,22 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="24">
@@ -6042,25 +6042,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973199</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161929</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494862</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
@@ -6072,13 +6072,13 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O24" t="n">
         <v>2125.96131142685</v>
@@ -6087,7 +6087,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R24" t="n">
         <v>2593.958107142068</v>
@@ -6096,7 +6096,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T24" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U24" t="n">
         <v>2043.809373447819</v>
@@ -6105,13 +6105,13 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W24" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="25">
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>709.4168978689405</v>
+        <v>730.2297869963112</v>
       </c>
       <c r="C25" t="n">
-        <v>540.4807149410336</v>
+        <v>561.2936040684043</v>
       </c>
       <c r="D25" t="n">
-        <v>390.3640755286979</v>
+        <v>411.1769646560685</v>
       </c>
       <c r="E25" t="n">
-        <v>242.4509819463048</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F25" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G25" t="n">
         <v>95.56103444839442</v>
@@ -6175,22 +6175,22 @@
         <v>1764.65758193153</v>
       </c>
       <c r="T25" t="n">
-        <v>1655.645296922954</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="U25" t="n">
-        <v>1366.542430048597</v>
+        <v>1475.554715057174</v>
       </c>
       <c r="V25" t="n">
-        <v>1111.85794184271</v>
+        <v>1475.554715057174</v>
       </c>
       <c r="W25" t="n">
-        <v>1111.85794184271</v>
+        <v>1186.137545020213</v>
       </c>
       <c r="X25" t="n">
-        <v>1111.85794184271</v>
+        <v>958.1479941221958</v>
       </c>
       <c r="Y25" t="n">
-        <v>891.0653626991802</v>
+        <v>737.3554149786656</v>
       </c>
     </row>
     <row r="26">
@@ -6212,37 +6212,37 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551625</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089256</v>
+        <v>137.557933208926</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>298.749495677233</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>953.4728278125324</v>
+        <v>939.1634975427193</v>
       </c>
       <c r="L26" t="n">
-        <v>1404.507041060941</v>
+        <v>1797.11783460013</v>
       </c>
       <c r="M26" t="n">
-        <v>2383.05734389077</v>
+        <v>2330.649739272054</v>
       </c>
       <c r="N26" t="n">
-        <v>3362.809616117416</v>
+        <v>2877.428556330836</v>
       </c>
       <c r="O26" t="n">
-        <v>3865.782086996753</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P26" t="n">
-        <v>4260.556453353931</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q26" t="n">
         <v>4719.034655862919</v>
@@ -6309,16 +6309,16 @@
         <v>427.5025029193588</v>
       </c>
       <c r="L27" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O27" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P27" t="n">
         <v>2436.460902902953</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>525.6262188911248</v>
+        <v>777.9967291146778</v>
       </c>
       <c r="C28" t="n">
-        <v>392.5676213586405</v>
+        <v>777.9967291146778</v>
       </c>
       <c r="D28" t="n">
-        <v>242.4509819463048</v>
+        <v>627.880089702342</v>
       </c>
       <c r="E28" t="n">
-        <v>242.4509819463048</v>
+        <v>627.880089702342</v>
       </c>
       <c r="F28" t="n">
-        <v>95.56103444839442</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G28" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I28" t="n">
         <v>95.56103444839442</v>
@@ -6409,25 +6409,25 @@
         <v>1956.343466104703</v>
       </c>
       <c r="S28" t="n">
-        <v>1956.343466104703</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T28" t="n">
-        <v>1734.576850674229</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U28" t="n">
-        <v>1445.473983799873</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="V28" t="n">
-        <v>1445.473983799873</v>
+        <v>1288.206478295169</v>
       </c>
       <c r="W28" t="n">
-        <v>1156.056813762912</v>
+        <v>998.7893082582079</v>
       </c>
       <c r="X28" t="n">
-        <v>928.0672628648947</v>
+        <v>998.7893082582079</v>
       </c>
       <c r="Y28" t="n">
-        <v>707.2746837213646</v>
+        <v>777.9967291146778</v>
       </c>
     </row>
     <row r="29">
@@ -6443,46 +6443,46 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F29" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089257</v>
+        <v>137.557933208926</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K29" t="n">
-        <v>1106.569146563073</v>
+        <v>785.6651881176192</v>
       </c>
       <c r="L29" t="n">
-        <v>1971.087962216427</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M29" t="n">
-        <v>2504.619866888352</v>
+        <v>1770.231306037952</v>
       </c>
       <c r="N29" t="n">
-        <v>3484.372139114998</v>
+        <v>2749.983578264599</v>
       </c>
       <c r="O29" t="n">
-        <v>3987.344609994335</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P29" t="n">
-        <v>4382.118976351513</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R29" t="n">
         <v>4778.051722419721</v>
@@ -6516,25 +6516,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089891</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I30" t="n">
         <v>95.56103444839442</v>
@@ -6543,7 +6543,7 @@
         <v>189.2383039390117</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L30" t="n">
         <v>794.200663232024</v>
@@ -6552,13 +6552,13 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O30" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q30" t="n">
         <v>2594.102460549552</v>
@@ -6582,10 +6582,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="31">
@@ -6595,16 +6595,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>590.7492891710236</v>
+        <v>393.5907674431232</v>
       </c>
       <c r="C31" t="n">
-        <v>421.8131062431167</v>
+        <v>393.5907674431232</v>
       </c>
       <c r="D31" t="n">
-        <v>271.696466830781</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E31" t="n">
-        <v>123.7833732483879</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F31" t="n">
         <v>95.56103444839442</v>
@@ -6622,7 +6622,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L31" t="n">
         <v>661.2306482927024</v>
@@ -6634,37 +6634,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P31" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R31" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S31" t="n">
-        <v>1866.513008862232</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T31" t="n">
-        <v>1644.746393431758</v>
+        <v>1602.541399226227</v>
       </c>
       <c r="U31" t="n">
-        <v>1355.643526557401</v>
+        <v>1313.438532351871</v>
       </c>
       <c r="V31" t="n">
-        <v>1100.959038351514</v>
+        <v>1313.438532351871</v>
       </c>
       <c r="W31" t="n">
-        <v>811.5418683145538</v>
+        <v>1024.02136231491</v>
       </c>
       <c r="X31" t="n">
-        <v>811.5418683145538</v>
+        <v>796.0318114168931</v>
       </c>
       <c r="Y31" t="n">
-        <v>590.7492891710236</v>
+        <v>575.239232273363</v>
       </c>
     </row>
     <row r="32">
@@ -6698,22 +6698,22 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K32" t="n">
-        <v>939.1634975427194</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L32" t="n">
-        <v>1390.197710791128</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M32" t="n">
-        <v>2317.998088216516</v>
+        <v>2215.249704195857</v>
       </c>
       <c r="N32" t="n">
-        <v>3297.750360443163</v>
+        <v>3195.001976422504</v>
       </c>
       <c r="O32" t="n">
-        <v>3800.7228313225</v>
+        <v>3697.97444730184</v>
       </c>
       <c r="P32" t="n">
         <v>4195.497197679678</v>
@@ -6753,13 +6753,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E33" t="n">
         <v>487.9678785494859</v>
@@ -6768,7 +6768,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H33" t="n">
         <v>114.5683260468565</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>877.1197344942216</v>
+        <v>822.6299143867971</v>
       </c>
       <c r="C34" t="n">
-        <v>708.1835515663147</v>
+        <v>653.6937314588902</v>
       </c>
       <c r="D34" t="n">
-        <v>558.0669121539789</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="E34" t="n">
-        <v>410.1538185715858</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="F34" t="n">
-        <v>263.2638710736754</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G34" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H34" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I34" t="n">
         <v>95.56103444839442</v>
@@ -6892,16 +6892,16 @@
         <v>1453.060509258584</v>
       </c>
       <c r="V34" t="n">
-        <v>1198.376021052697</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="W34" t="n">
-        <v>1058.768199324461</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="X34" t="n">
-        <v>1058.768199324461</v>
+        <v>1225.070958360567</v>
       </c>
       <c r="Y34" t="n">
-        <v>1058.768199324461</v>
+        <v>1004.278379217037</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C35" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D35" t="n">
         <v>1400.778593038484</v>
@@ -6923,16 +6923,16 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F35" t="n">
-        <v>698.9037015467788</v>
+        <v>698.903701546779</v>
       </c>
       <c r="G35" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H35" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I35" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J35" t="n">
         <v>270.0260478557146</v>
@@ -6941,25 +6941,25 @@
         <v>603.8454215455611</v>
       </c>
       <c r="L35" t="n">
-        <v>1468.364237198916</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M35" t="n">
-        <v>2305.516762226676</v>
+        <v>2030.265665799118</v>
       </c>
       <c r="N35" t="n">
-        <v>2852.295579285458</v>
+        <v>2577.0444828579</v>
       </c>
       <c r="O35" t="n">
-        <v>3355.268050164795</v>
+        <v>3080.016953737237</v>
       </c>
       <c r="P35" t="n">
-        <v>3750.042416521973</v>
+        <v>3474.791320094415</v>
       </c>
       <c r="Q35" t="n">
-        <v>3998.328778277656</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R35" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S35" t="n">
         <v>3994.504809309627</v>
@@ -6968,19 +6968,19 @@
         <v>3835.976694641922</v>
       </c>
       <c r="U35" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V35" t="n">
         <v>3346.282596468334</v>
       </c>
       <c r="W35" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X35" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y35" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="36">
@@ -7011,7 +7011,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I36" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J36" t="n">
         <v>174.8241863873065</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502698005</v>
       </c>
       <c r="C37" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899668</v>
       </c>
       <c r="D37" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257043</v>
       </c>
       <c r="E37" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913845</v>
       </c>
       <c r="F37" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415473</v>
       </c>
       <c r="G37" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H37" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I37" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J37" t="n">
         <v>172.7749345960314</v>
@@ -7099,7 +7099,7 @@
         <v>423.2675027973144</v>
       </c>
       <c r="L37" t="n">
-        <v>786.3326864982172</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M37" t="n">
         <v>1176.995117350173</v>
@@ -7123,22 +7123,22 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T37" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U37" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V37" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W37" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X37" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347424</v>
       </c>
       <c r="Y37" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519669</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7148,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C38" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D38" t="n">
         <v>1400.778593038484</v>
@@ -7160,61 +7160,61 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F38" t="n">
-        <v>698.9037015467787</v>
+        <v>698.9037015467791</v>
       </c>
       <c r="G38" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H38" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="I38" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J38" t="n">
-        <v>270.0260478557146</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K38" t="n">
-        <v>907.4660419013956</v>
+        <v>771.2510705659141</v>
       </c>
       <c r="L38" t="n">
-        <v>1771.98485755475</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M38" t="n">
-        <v>2305.516762226675</v>
+        <v>1755.817188486248</v>
       </c>
       <c r="N38" t="n">
-        <v>2852.295579285457</v>
+        <v>2302.59600554503</v>
       </c>
       <c r="O38" t="n">
-        <v>3355.268050164794</v>
+        <v>2805.568476424367</v>
       </c>
       <c r="P38" t="n">
-        <v>3750.042416521972</v>
+        <v>3474.791320094415</v>
       </c>
       <c r="Q38" t="n">
-        <v>3998.328778277655</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R38" t="n">
-        <v>4057.345844834457</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S38" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T38" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U38" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V38" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W38" t="n">
         <v>3040.963574146293</v>
       </c>
       <c r="X38" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y38" t="n">
         <v>2372.257749805548</v>
@@ -7227,28 +7227,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>956.1786549456144</v>
+        <v>956.1786549456143</v>
       </c>
       <c r="C39" t="n">
-        <v>781.7256256644874</v>
+        <v>781.7256256644873</v>
       </c>
       <c r="D39" t="n">
-        <v>632.7912160032362</v>
+        <v>632.7912160032361</v>
       </c>
       <c r="E39" t="n">
-        <v>473.5537609977807</v>
+        <v>473.5537609977806</v>
       </c>
       <c r="F39" t="n">
-        <v>327.0192030246657</v>
+        <v>327.0192030246656</v>
       </c>
       <c r="G39" t="n">
-        <v>190.6561028572838</v>
+        <v>190.6561028572837</v>
       </c>
       <c r="H39" t="n">
-        <v>100.1542084951513</v>
+        <v>100.1542084951512</v>
       </c>
       <c r="I39" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J39" t="n">
         <v>174.8241863873065</v>
@@ -7296,7 +7296,7 @@
         <v>1332.154290730636</v>
       </c>
       <c r="Y39" t="n">
-        <v>1124.393991965683</v>
+        <v>1124.393991965682</v>
       </c>
     </row>
     <row r="40">
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>774.1010502698009</v>
+        <v>774.1010502698002</v>
       </c>
       <c r="C40" t="n">
-        <v>652.6145002899673</v>
+        <v>652.6145002899666</v>
       </c>
       <c r="D40" t="n">
-        <v>549.9474938257049</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E40" t="n">
-        <v>449.4840331913851</v>
+        <v>449.4840331913843</v>
       </c>
       <c r="F40" t="n">
-        <v>350.043718641548</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G40" t="n">
-        <v>229.7905149643403</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H40" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I40" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J40" t="n">
         <v>172.7749345960314</v>
@@ -7336,10 +7336,10 @@
         <v>423.2675027973144</v>
       </c>
       <c r="L40" t="n">
-        <v>786.3326864982172</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M40" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N40" t="n">
         <v>1564.908879308444</v>
@@ -7366,16 +7366,16 @@
         <v>1711.385138644069</v>
       </c>
       <c r="V40" t="n">
-        <v>1504.150283386256</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W40" t="n">
         <v>1262.182746297368</v>
       </c>
       <c r="X40" t="n">
-        <v>1081.642828347424</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y40" t="n">
-        <v>908.2998821519673</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="41">
@@ -7397,7 +7397,7 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F41" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467784</v>
       </c>
       <c r="G41" t="n">
         <v>331.2808843398487</v>
@@ -7415,16 +7415,16 @@
         <v>924.7493799910142</v>
       </c>
       <c r="L41" t="n">
-        <v>1375.783593239423</v>
+        <v>1771.98485755475</v>
       </c>
       <c r="M41" t="n">
-        <v>1909.315497911347</v>
+        <v>2305.516762226675</v>
       </c>
       <c r="N41" t="n">
-        <v>2456.09431497013</v>
+        <v>2852.295579285457</v>
       </c>
       <c r="O41" t="n">
-        <v>3336.058965299585</v>
+        <v>3355.268050164794</v>
       </c>
       <c r="P41" t="n">
         <v>3750.042416521972</v>
@@ -7445,7 +7445,7 @@
         <v>3629.895850863831</v>
       </c>
       <c r="V41" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W41" t="n">
         <v>3040.963574146293</v>
@@ -7464,25 +7464,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>956.1786549456144</v>
+        <v>956.1786549456143</v>
       </c>
       <c r="C42" t="n">
-        <v>781.7256256644874</v>
+        <v>781.7256256644873</v>
       </c>
       <c r="D42" t="n">
-        <v>632.7912160032362</v>
+        <v>632.7912160032361</v>
       </c>
       <c r="E42" t="n">
-        <v>473.5537609977807</v>
+        <v>473.5537609977806</v>
       </c>
       <c r="F42" t="n">
-        <v>327.0192030246657</v>
+        <v>327.0192030246656</v>
       </c>
       <c r="G42" t="n">
-        <v>190.6561028572838</v>
+        <v>190.6561028572837</v>
       </c>
       <c r="H42" t="n">
-        <v>100.1542084951513</v>
+        <v>100.1542084951512</v>
       </c>
       <c r="I42" t="n">
         <v>81.14691689668915</v>
@@ -7533,7 +7533,7 @@
         <v>1332.154290730636</v>
       </c>
       <c r="Y42" t="n">
-        <v>1124.393991965683</v>
+        <v>1124.393991965682</v>
       </c>
     </row>
     <row r="43">
@@ -7552,13 +7552,13 @@
         <v>549.9474938257049</v>
       </c>
       <c r="E43" t="n">
-        <v>449.4840331913851</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F43" t="n">
-        <v>350.043718641548</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G43" t="n">
-        <v>229.7905149643403</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H43" t="n">
         <v>131.0229611302705</v>
@@ -7646,19 +7646,19 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J44" t="n">
-        <v>289.2351327209241</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K44" t="n">
-        <v>943.9584648562236</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L44" t="n">
-        <v>1394.992678104632</v>
+        <v>1326.966459396846</v>
       </c>
       <c r="M44" t="n">
-        <v>1928.524582776557</v>
+        <v>2305.516762226675</v>
       </c>
       <c r="N44" t="n">
-        <v>2475.303399835339</v>
+        <v>2852.295579285457</v>
       </c>
       <c r="O44" t="n">
         <v>3355.268050164794</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>774.1010502697992</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C46" t="n">
-        <v>652.6145002899656</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D46" t="n">
-        <v>549.9474938257032</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E46" t="n">
-        <v>449.4840331913834</v>
+        <v>449.4840331913843</v>
       </c>
       <c r="F46" t="n">
-        <v>350.0437186415463</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G46" t="n">
-        <v>229.7905149643389</v>
+        <v>229.7905149643391</v>
       </c>
       <c r="H46" t="n">
-        <v>131.0229611302702</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I46" t="n">
         <v>81.14691689668915</v>
@@ -7813,7 +7813,7 @@
         <v>786.3326864982172</v>
       </c>
       <c r="M46" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N46" t="n">
         <v>1564.908879308444</v>
@@ -7822,7 +7822,7 @@
         <v>1910.743863481264</v>
       </c>
       <c r="P46" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167329</v>
       </c>
       <c r="Q46" t="n">
         <v>2313.972430572251</v>
@@ -7831,25 +7831,25 @@
         <v>2271.591606277852</v>
       </c>
       <c r="S46" t="n">
-        <v>2127.355355052751</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T46" t="n">
-        <v>1953.03837257035</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U46" t="n">
-        <v>1711.385138644067</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V46" t="n">
-        <v>1504.150283386254</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W46" t="n">
         <v>1262.182746297367</v>
       </c>
       <c r="X46" t="n">
-        <v>1081.642828347422</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y46" t="n">
-        <v>908.2998821519657</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
   </sheetData>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>61.95869720233755</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>176.5047268352748</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>79.87400740573531</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747075</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8538,7 +8538,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>422.2865794093292</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8547,7 +8547,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8687,28 +8687,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>294.8707872801647</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -8924,31 +8924,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>136.2499899971297</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>173.2204606877393</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9164,13 +9164,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>231.5010718068643</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>381.817657018402</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
@@ -9179,13 +9179,13 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9398,31 +9398,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>133.2530576400263</v>
+        <v>219.3344627260164</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9635,25 +9635,25 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>395.1460246798098</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>294.8707872801648</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
@@ -9872,28 +9872,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>14.45386895940723</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>411.0304280899009</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10112,10 +10112,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10124,16 +10124,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>231.5010718068653</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>89.52456338961977</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,16 +10346,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>398.2509825792558</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10364,7 +10364,7 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>103.7862464855144</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
@@ -10589,10 +10589,10 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>306.6874953089248</v>
+        <v>446.3172993264884</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -10604,10 +10604,10 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10820,13 +10820,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>306.6874953089238</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10838,13 +10838,13 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>277.220684154414</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11063,7 +11063,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>400.2032972882094</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11072,10 +11072,10 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>19.40311602546439</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -11294,22 +11294,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>19.4031160254641</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>274.8351763665419</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -22556,7 +22556,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -22604,7 +22604,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>4.659164397315879</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22702,7 +22702,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -22714,16 +22714,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1085547440527</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>138.1371952122443</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22747,22 +22747,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>37.95387533906024</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>151.4072119725567</v>
+        <v>127.9704086183939</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>223.5524300857485</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2876267935253</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>88.30281167720663</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983695</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,19 +23461,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>87.52869706763244</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>-2.945315721635453e-13</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23650,10 +23650,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>64.5370378826245</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23665,10 +23665,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
         <v>96.35242040983809</v>
@@ -23701,7 +23701,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
@@ -23710,16 +23710,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>47.29464513706779</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23792,7 +23792,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-13</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23893,16 +23893,16 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>94.34253897359555</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23941,7 +23941,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>58.08633937236706</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,13 +23950,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>91.5940037460155</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24184,16 +24184,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>60.90665697761426</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>172.7776084794064</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24373,10 +24373,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -24415,19 +24415,19 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>111.6267871176784</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,10 +24598,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>35.51880954146836</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24610,16 +24610,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>25.55842690471023</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,22 +24649,22 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,10 +24835,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24847,7 +24847,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>117.4809326109377</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.0258082590282</v>
@@ -24856,7 +24856,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,25 +24883,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>59.05392839792026</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>3.197346561008686</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25132,16 +25132,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>148.3112548256373</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25360,7 +25360,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>-1.583178160801231e-13</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25564,7 +25564,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>-8.668621376273222e-13</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25792,7 +25792,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>-8.952838470577262e-13</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25801,7 +25801,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>-8.668621376273222e-13</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>238430.3823239644</v>
+        <v>238430.3823239646</v>
       </c>
       <c r="C2" t="n">
         <v>246312.5309592849</v>
@@ -26326,7 +26326,7 @@
         <v>238249.0721321899</v>
       </c>
       <c r="G2" t="n">
-        <v>238249.0721321898</v>
+        <v>238249.0721321899</v>
       </c>
       <c r="H2" t="n">
         <v>238249.0721321899</v>
@@ -26335,7 +26335,7 @@
         <v>238249.0721321899</v>
       </c>
       <c r="J2" t="n">
-        <v>238249.0721321899</v>
+        <v>238249.07213219</v>
       </c>
       <c r="K2" t="n">
         <v>238249.0721321899</v>
@@ -26344,13 +26344,13 @@
         <v>238249.0721321899</v>
       </c>
       <c r="M2" t="n">
+        <v>246312.5309592848</v>
+      </c>
+      <c r="N2" t="n">
+        <v>246312.5309592848</v>
+      </c>
+      <c r="O2" t="n">
         <v>246312.5309592847</v>
-      </c>
-      <c r="N2" t="n">
-        <v>246312.5309592846</v>
-      </c>
-      <c r="O2" t="n">
-        <v>246312.5309592846</v>
       </c>
       <c r="P2" t="n">
         <v>246312.5309592852</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>510843.5836680244</v>
+        <v>510843.5836680254</v>
       </c>
       <c r="C3" t="n">
-        <v>75205.1575176831</v>
+        <v>75205.15751768221</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934068</v>
+        <v>727377.4139934067</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,16 +26384,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>158647.2568877912</v>
+        <v>158647.2568877914</v>
       </c>
       <c r="K3" t="n">
-        <v>17485.45300661302</v>
+        <v>17485.45300661268</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.62584001373034e-10</v>
       </c>
       <c r="M3" t="n">
         <v>122321.7272543794</v>
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>216049.6620390666</v>
+        <v>216049.6620390663</v>
       </c>
       <c r="C4" t="n">
-        <v>209922.4154630334</v>
+        <v>209922.4154630333</v>
       </c>
       <c r="D4" t="n">
         <v>209922.4154630333</v>
       </c>
       <c r="E4" t="n">
-        <v>28561.83935289575</v>
+        <v>28561.83935289576</v>
       </c>
       <c r="F4" t="n">
-        <v>28561.83935289575</v>
+        <v>28561.83935289577</v>
       </c>
       <c r="G4" t="n">
         <v>28561.83935289575</v>
       </c>
       <c r="H4" t="n">
-        <v>28561.83935289577</v>
+        <v>28561.83935289576</v>
       </c>
       <c r="I4" t="n">
         <v>28561.83935289575</v>
@@ -26442,22 +26442,22 @@
         <v>28561.83935289577</v>
       </c>
       <c r="K4" t="n">
-        <v>28561.83935289575</v>
+        <v>28561.83935289577</v>
       </c>
       <c r="L4" t="n">
         <v>28561.83935289575</v>
       </c>
       <c r="M4" t="n">
+        <v>64344.18042540621</v>
+      </c>
+      <c r="N4" t="n">
+        <v>64344.1804254062</v>
+      </c>
+      <c r="O4" t="n">
         <v>64344.18042540624</v>
       </c>
-      <c r="N4" t="n">
-        <v>64344.18042540623</v>
-      </c>
-      <c r="O4" t="n">
-        <v>64344.18042540623</v>
-      </c>
       <c r="P4" t="n">
-        <v>64344.18042540623</v>
+        <v>64344.18042540624</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>77453.39934293454</v>
+        <v>77453.39934293463</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26485,7 +26485,7 @@
         <v>96383.51825371366</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
         <v>96383.51825371366</v>
@@ -26494,7 +26494,7 @@
         <v>96383.51825371364</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="L5" t="n">
         <v>96383.51825371366</v>
@@ -26503,7 +26503,7 @@
         <v>89377.94167480612</v>
       </c>
       <c r="N5" t="n">
-        <v>89377.9416748061</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="O5" t="n">
         <v>89377.9416748061</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-565916.2627260613</v>
+        <v>-565981.9472980228</v>
       </c>
       <c r="C6" t="n">
-        <v>-121674.120084841</v>
+        <v>-121674.1200848401</v>
       </c>
       <c r="D6" t="n">
-        <v>-46468.9625671579</v>
+        <v>-46468.96256715784</v>
       </c>
       <c r="E6" t="n">
-        <v>-614073.6994678263</v>
+        <v>-614140.894958052</v>
       </c>
       <c r="F6" t="n">
-        <v>113303.7145255805</v>
+        <v>113236.5190353547</v>
       </c>
       <c r="G6" t="n">
-        <v>113303.7145255804</v>
+        <v>113236.5190353548</v>
       </c>
       <c r="H6" t="n">
-        <v>113303.7145255807</v>
+        <v>113236.5190353547</v>
       </c>
       <c r="I6" t="n">
-        <v>113303.7145255803</v>
+        <v>113236.5190353547</v>
       </c>
       <c r="J6" t="n">
-        <v>-45343.54236221069</v>
+        <v>-45410.73785243666</v>
       </c>
       <c r="K6" t="n">
-        <v>95818.26151896753</v>
+        <v>95751.06602874199</v>
       </c>
       <c r="L6" t="n">
-        <v>113303.7145255805</v>
+        <v>113236.5190353545</v>
       </c>
       <c r="M6" t="n">
-        <v>-29731.31839530707</v>
+        <v>-29731.31839530686</v>
       </c>
       <c r="N6" t="n">
-        <v>92590.40885907227</v>
+        <v>92590.40885907252</v>
       </c>
       <c r="O6" t="n">
-        <v>92590.40885907227</v>
+        <v>92590.40885907233</v>
       </c>
       <c r="P6" t="n">
-        <v>92590.40885907282</v>
+        <v>92590.40885907285</v>
       </c>
     </row>
   </sheetData>
@@ -26716,10 +26716,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O2" t="n">
         <v>46.97513661859257</v>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>319.259390149895</v>
+        <v>319.2593901498958</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>606.3477736458362</v>
+        <v>606.3477736458372</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26823,7 +26823,7 @@
         <v>1014.336461208615</v>
       </c>
       <c r="N4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="O4" t="n">
         <v>1014.336461208614</v>
@@ -26938,7 +26938,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>319.259390149895</v>
+        <v>319.2593901498958</v>
       </c>
       <c r="C3" t="n">
-        <v>58.48427406719158</v>
+        <v>58.48427406719084</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762117</v>
+        <v>712.0330363762116</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,19 +26975,19 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>2.273736754432321e-13</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27009,10 +27009,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>606.3477736458362</v>
+        <v>606.3477736458372</v>
       </c>
       <c r="C4" t="n">
-        <v>67.93949910871925</v>
+        <v>67.93949910871856</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>606.3477736458362</v>
+        <v>606.3477736458372</v>
       </c>
       <c r="K4" t="n">
-        <v>67.93949910871925</v>
+        <v>67.93949910871856</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>340.0491884540589</v>
+        <v>340.049188454059</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,10 +27255,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>606.3477736458362</v>
+        <v>606.3477736458372</v>
       </c>
       <c r="K4" t="n">
-        <v>67.93949910871925</v>
+        <v>67.93949910871856</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27385,19 +27385,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>361.5169159129659</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50.66621419160884</v>
       </c>
       <c r="I2" t="n">
-        <v>160.9954970528026</v>
+        <v>160.9954970528024</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,22 +27427,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>179.7733425388454</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.4775260249106</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2429765210546</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27464,13 +27464,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>143.3370162110525</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.6568082862844</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27512,7 +27512,7 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>113.4606408474661</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27546,19 +27546,19 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.4152657040901</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>157.1085547440527</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>138.1371952122443</v>
       </c>
       <c r="J4" t="n">
-        <v>52.6562247528083</v>
+        <v>52.6562247528082</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,31 +27579,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>37.95387533906012</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>213.9834791694747</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.485721995979</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2876267935253</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>42.87364296304258</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,19 +27616,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>154.3743265587722</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>342.7311428911777</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27670,7 +27670,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27695,7 +27695,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>3.694822225952521e-13</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -27740,7 +27740,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>8.100187187665142e-13</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -27774,16 +27774,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>19.97926895324002</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27792,10 +27792,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27825,7 +27825,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>80.96197830797757</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,7 +27859,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>236.8884507277486</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>38.36925683836287</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27910,16 +27910,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,19 +28053,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>80.30052583420209</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>142.1113494150891</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28074,7 +28074,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28102,10 +28102,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>-3.410605131648481e-13</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28260,13 +28260,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1.131184035330079e-12</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -28387,7 +28387,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -28485,7 +28485,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>1.885306725550132e-12</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -28737,7 +28737,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>1.508245380440106e-12</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C35" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D35" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E35" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F35" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G35" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H35" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T35" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U35" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V35" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W35" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X35" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y35" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C38" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D38" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E38" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F38" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G38" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H38" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T38" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U38" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V38" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W38" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X38" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y38" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="41">
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.283454834773446</v>
+        <v>1.28345483477345</v>
       </c>
       <c r="H2" t="n">
-        <v>13.14418182662356</v>
+        <v>13.14418182662359</v>
       </c>
       <c r="I2" t="n">
-        <v>49.48039251760333</v>
+        <v>49.48039251760346</v>
       </c>
       <c r="J2" t="n">
-        <v>108.9316247828529</v>
+        <v>108.9316247828532</v>
       </c>
       <c r="K2" t="n">
-        <v>163.2602679388129</v>
+        <v>163.2602679388133</v>
       </c>
       <c r="L2" t="n">
-        <v>202.5387988385108</v>
+        <v>202.5387988385113</v>
       </c>
       <c r="M2" t="n">
-        <v>225.3634387564131</v>
+        <v>225.3634387564136</v>
       </c>
       <c r="N2" t="n">
-        <v>229.0100548057131</v>
+        <v>229.0100548057137</v>
       </c>
       <c r="O2" t="n">
-        <v>216.2477007924347</v>
+        <v>216.2477007924352</v>
       </c>
       <c r="P2" t="n">
-        <v>184.5624095589652</v>
+        <v>184.5624095589656</v>
       </c>
       <c r="Q2" t="n">
-        <v>138.5986832886411</v>
+        <v>138.5986832886414</v>
       </c>
       <c r="R2" t="n">
-        <v>80.62181976483757</v>
+        <v>80.62181976483777</v>
       </c>
       <c r="S2" t="n">
-        <v>29.24672704739994</v>
+        <v>29.24672704740001</v>
       </c>
       <c r="T2" t="n">
-        <v>5.618323539220764</v>
+        <v>5.618323539220778</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1026763867818757</v>
+        <v>0.1026763867818759</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6867088769261893</v>
+        <v>0.686708876926191</v>
       </c>
       <c r="H3" t="n">
-        <v>6.632162048208198</v>
+        <v>6.632162048208214</v>
       </c>
       <c r="I3" t="n">
-        <v>23.64326615732713</v>
+        <v>23.64326615732719</v>
       </c>
       <c r="J3" t="n">
-        <v>64.87892946432915</v>
+        <v>64.8789294643293</v>
       </c>
       <c r="K3" t="n">
-        <v>110.8884242183838</v>
+        <v>110.8884242183841</v>
       </c>
       <c r="L3" t="n">
-        <v>149.1031708431184</v>
+        <v>149.1031708431188</v>
       </c>
       <c r="M3" t="n">
-        <v>173.9963676316927</v>
+        <v>173.9963676316932</v>
       </c>
       <c r="N3" t="n">
-        <v>178.6015337405531</v>
+        <v>178.6015337405535</v>
       </c>
       <c r="O3" t="n">
-        <v>163.3855107307675</v>
+        <v>163.3855107307679</v>
       </c>
       <c r="P3" t="n">
-        <v>131.1312766825107</v>
+        <v>131.131276682511</v>
       </c>
       <c r="Q3" t="n">
-        <v>87.65778576342024</v>
+        <v>87.65778576342046</v>
       </c>
       <c r="R3" t="n">
-        <v>42.63618799020675</v>
+        <v>42.63618799020686</v>
       </c>
       <c r="S3" t="n">
-        <v>12.75531620080004</v>
+        <v>12.75531620080007</v>
       </c>
       <c r="T3" t="n">
-        <v>2.767918674978806</v>
+        <v>2.767918674978813</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04517821558724931</v>
+        <v>0.04517821558724942</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5757136543686631</v>
+        <v>0.5757136543686645</v>
       </c>
       <c r="H4" t="n">
-        <v>5.118617763386845</v>
+        <v>5.118617763386857</v>
       </c>
       <c r="I4" t="n">
-        <v>17.31327971501398</v>
+        <v>17.31327971501403</v>
       </c>
       <c r="J4" t="n">
-        <v>40.70295536386448</v>
+        <v>40.70295536386458</v>
       </c>
       <c r="K4" t="n">
-        <v>66.88745911665012</v>
+        <v>66.88745911665028</v>
       </c>
       <c r="L4" t="n">
-        <v>85.59291912313743</v>
+        <v>85.59291912313765</v>
       </c>
       <c r="M4" t="n">
-        <v>90.24573220253505</v>
+        <v>90.24573220253528</v>
       </c>
       <c r="N4" t="n">
-        <v>88.0998903998883</v>
+        <v>88.09989039988851</v>
       </c>
       <c r="O4" t="n">
-        <v>81.37450816476343</v>
+        <v>81.37450816476363</v>
       </c>
       <c r="P4" t="n">
-        <v>69.62994961564264</v>
+        <v>69.62994961564281</v>
       </c>
       <c r="Q4" t="n">
-        <v>48.20816791263415</v>
+        <v>48.20816791263427</v>
       </c>
       <c r="R4" t="n">
-        <v>25.88617940461279</v>
+        <v>25.88617940461285</v>
       </c>
       <c r="S4" t="n">
-        <v>10.03311886749752</v>
+        <v>10.03311886749754</v>
       </c>
       <c r="T4" t="n">
-        <v>2.459867432302469</v>
+        <v>2.459867432302475</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03140256296556348</v>
+        <v>0.03140256296556355</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -32075,7 +32075,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
@@ -32324,7 +32324,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
         <v>557.708647897025</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32546,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32634,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32652,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33029,7 +33029,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138801</v>
       </c>
       <c r="M27" t="n">
         <v>593.9283018233474</v>
@@ -33041,7 +33041,7 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002933</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
         <v>299.2156706987486</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I29" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33257,40 +33257,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33345,16 +33345,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33363,16 +33363,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33515,7 +33515,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
         <v>299.2156706987487</v>
@@ -33992,7 +33992,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>96.98233542824038</v>
+        <v>96.98233542824065</v>
       </c>
       <c r="K2" t="n">
-        <v>267.3158294649971</v>
+        <v>267.3158294649975</v>
       </c>
       <c r="L2" t="n">
-        <v>384.433598418974</v>
+        <v>384.4335984189745</v>
       </c>
       <c r="M2" t="n">
-        <v>444.5307390219729</v>
+        <v>444.5307390219734</v>
       </c>
       <c r="N2" t="n">
-        <v>436.9439156211064</v>
+        <v>436.943915621107</v>
       </c>
       <c r="O2" t="n">
-        <v>366.9496706334933</v>
+        <v>366.9496706334938</v>
       </c>
       <c r="P2" t="n">
-        <v>275.1281219751783</v>
+        <v>275.1281219751787</v>
       </c>
       <c r="Q2" t="n">
-        <v>128.6079840740963</v>
+        <v>128.6079840740966</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>64.13233813807145</v>
       </c>
       <c r="K3" t="n">
-        <v>237.5122222566034</v>
+        <v>237.5122222566037</v>
       </c>
       <c r="L3" t="n">
-        <v>381.3891363667034</v>
+        <v>187.0535178985195</v>
       </c>
       <c r="M3" t="n">
-        <v>497.5673974596743</v>
+        <v>497.5673974596748</v>
       </c>
       <c r="N3" t="n">
-        <v>526.6021960007733</v>
+        <v>526.6021960007738</v>
       </c>
       <c r="O3" t="n">
-        <v>414.6515855630525</v>
+        <v>414.651585563053</v>
       </c>
       <c r="P3" t="n">
-        <v>315.6196379081176</v>
+        <v>315.6196379081179</v>
       </c>
       <c r="Q3" t="n">
-        <v>27.55001908313404</v>
+        <v>157.753299413248</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,22 +34857,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>44.61796729076727</v>
+        <v>44.61796729076742</v>
       </c>
       <c r="L4" t="n">
-        <v>113.1829443834536</v>
+        <v>113.1829443834538</v>
       </c>
       <c r="M4" t="n">
-        <v>129.8296091643757</v>
+        <v>129.8296091643759</v>
       </c>
       <c r="N4" t="n">
-        <v>132.2320627791169</v>
+        <v>132.2320627791171</v>
       </c>
       <c r="O4" t="n">
-        <v>105.9596360788031</v>
+        <v>105.9596360788033</v>
       </c>
       <c r="P4" t="n">
-        <v>66.90850888053613</v>
+        <v>66.9085088805363</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35027,13 +35027,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535575</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35258,16 +35258,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>486.0228424856231</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N11" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O11" t="n">
-        <v>802.9237881683838</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P11" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
         <v>59.61319854222478</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>675.1711058273564</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248956</v>
+        <v>725.5222961006508</v>
       </c>
       <c r="O14" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q14" t="n">
         <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
@@ -35884,13 +35884,13 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>568.6923583622648</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>837.4077714107342</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N17" t="n">
         <v>989.6487598248956</v>
@@ -35899,13 +35899,13 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35972,7 +35972,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
         <v>415.1124034525806</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>470.4443441954267</v>
+        <v>556.5257492814169</v>
       </c>
       <c r="L20" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>988.434649323059</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N20" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36291,13 +36291,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,25 +36355,25 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L23" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>947.4478600927213</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>693.6327734995367</v>
       </c>
       <c r="Q23" t="n">
         <v>463.1092954636242</v>
@@ -36592,28 +36592,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>205.2408699281197</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K26" t="n">
         <v>661.3366991265651</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923319</v>
+        <v>866.6205424822328</v>
       </c>
       <c r="M26" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O26" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R26" t="n">
         <v>59.61319854222472</v>
@@ -36677,7 +36677,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340053</v>
+        <v>370.402182134006</v>
       </c>
       <c r="M27" t="n">
         <v>451.7942679013291</v>
@@ -36689,7 +36689,7 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P27" t="n">
-        <v>313.6359509859631</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
         <v>159.2338966127271</v>
@@ -36832,28 +36832,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O29" t="n">
-        <v>508.0530008882191</v>
+        <v>739.5540726950843</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q29" t="n">
-        <v>340.3188681933393</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K31" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L31" t="n">
         <v>319.7573721701981</v>
@@ -37002,13 +37002,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O31" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P31" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,16 +37066,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>937.1720984094826</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N32" t="n">
         <v>989.6487598248956</v>
@@ -37084,7 +37084,7 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>502.5482327048862</v>
       </c>
       <c r="Q32" t="n">
         <v>463.1092954636242</v>
@@ -37163,7 +37163,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
         <v>159.2338966127272</v>
@@ -37309,10 +37309,10 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>845.6086111391515</v>
+        <v>985.2384151567152</v>
       </c>
       <c r="N35" t="n">
         <v>552.3018354129115</v>
@@ -37324,10 +37324,10 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.5535532316588</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K37" t="n">
         <v>253.0227961629121</v>
@@ -37473,7 +37473,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N37" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O37" t="n">
         <v>349.3282668412323</v>
@@ -37540,13 +37540,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>643.8787818643243</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
         <v>538.9211158302268</v>
@@ -37558,13 +37558,13 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>675.9826703737858</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37640,7 +37640,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.5535532316588</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K40" t="n">
         <v>253.0227961629121</v>
@@ -37710,7 +37710,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N40" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O40" t="n">
         <v>349.3282668412323</v>
@@ -37783,7 +37783,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>855.7934116805416</v>
       </c>
       <c r="M41" t="n">
         <v>538.9211158302268</v>
@@ -37792,10 +37792,10 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>418.1651022448362</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
         <v>250.7943048037195</v>
@@ -38014,22 +38014,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>210.1901169941767</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>730.4252907588741</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N44" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
         <v>398.7619862193719</v>
